--- a/src/main/webapp/WEB-INF/excel/goods.xlsx
+++ b/src/main/webapp/WEB-INF/excel/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.131.47063"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>상품코드</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>&lt;jx:forEach var="goods" items="${goodsList}" varStatus="status"&gt;</t>
+  </si>
+  <si>
+    <t>상품사진</t>
+  </si>
+  <si>
+    <t>${goods.g_flie}</t>
+  </si>
+  <si>
+    <t>신상품태그</t>
+  </si>
+  <si>
+    <t>추천상품태그</t>
+  </si>
+  <si>
+    <t>${goods.g_new}</t>
+  </si>
+  <si>
+    <t>${goods.g_recommend}</t>
+  </si>
+  <si>
+    <t>${goods.g_file}</t>
   </si>
 </sst>
 </file>
@@ -666,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +704,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1015,9 +1042,12 @@
     <col min="2" max="2" style="1" width="33.75500107" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="24.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="12.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1030,13 +1060,22 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,8 +1088,17 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
